--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86189\Desktop\fyp\fyp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043DCEF-51AC-4712-B3EF-4B5DAA4DACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD41CE-0E92-4162-9A03-901BBD231A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="并行" sheetId="2" r:id="rId2"/>
     <sheet name="PPO" sheetId="3" r:id="rId3"/>
+    <sheet name="reward2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,10 +618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD33106-429D-4CF7-A9D0-5069A3C3A426}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -624,6 +633,9 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
@@ -641,7 +653,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -655,17 +667,130 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>3062.53</v>
+        <v>-3062.53</v>
       </c>
       <c r="F3">
         <v>218.5</v>
       </c>
       <c r="G3">
         <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>-2928</v>
+      </c>
+      <c r="F4">
+        <v>212.11</v>
+      </c>
+      <c r="G4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>-3189</v>
+      </c>
+      <c r="F5">
+        <v>225</v>
+      </c>
+      <c r="G5">
+        <v>7768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D605EA7-D662-4C46-9854-113B8E77F4DB}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>199</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>210</v>
+      </c>
+      <c r="G3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>205</v>
+      </c>
+      <c r="G4">
+        <v>46.5</v>
       </c>
     </row>
   </sheetData>
